--- a/experimental data/ExperimentalvsModelComparison.xlsx
+++ b/experimental data/ExperimentalvsModelComparison.xlsx
@@ -21,9 +21,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Outlet</t>
-  </si>
-  <si>
     <t>Timestamp</t>
   </si>
   <si>
@@ -31,6 +28,9 @@
   </si>
   <si>
     <t>Modelica Model</t>
+  </si>
+  <si>
+    <t>Experimental Outlet</t>
   </si>
 </sst>
 </file>
@@ -130,6 +130,30 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Temperature of Outlet:</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Experimental vs Modeled</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -145,7 +169,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Outlet</c:v>
+                  <c:v>Experimental Outlet</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6488,7 +6512,7 @@
   <dimension ref="A1:D490"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6498,16 +6522,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
